--- a/data/glossaries/glossary_GEF-EAS (EN_FR).xlsx
+++ b/data/glossaries/glossary_GEF-EAS (EN_FR).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienmhp/Desktop/undp/TargetAssessmentReport/data/glossaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{410C7A36-7786-9946-B9CC-AC826EF16E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABE0376-1603-CC42-8221-124BC1BF527A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17100" yWindow="0" windowWidth="17100" windowHeight="22240" xr2:uid="{51858781-B643-B04B-A341-962924C52302}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="glossary_GEF_EAS__EN_FR" localSheetId="0">Sheet1!$A$1:$D$99</definedName>
+    <definedName name="glossary_GEF_EAS__EN_FR" localSheetId="0">Sheet1!$A$1:$D$113</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="230">
   <si>
     <t>2030 Agenda for Sustainable Development</t>
   </si>
@@ -663,6 +663,87 @@
   </si>
   <si>
     <t>Initiative Équateur</t>
+  </si>
+  <si>
+    <t>Assessment Report</t>
+  </si>
+  <si>
+    <t>Climate Hub</t>
+  </si>
+  <si>
+    <t>Hub Climat</t>
+  </si>
+  <si>
+    <t>Climate Promise</t>
+  </si>
+  <si>
+    <t>Promesse pour le climat</t>
+  </si>
+  <si>
+    <t>Intergovernmental Panel on Climate Change</t>
+  </si>
+  <si>
+    <t>Intergovernmental Science-Policy Platform on Climate Change</t>
+  </si>
+  <si>
+    <t>Rapport d'Évaluation</t>
+  </si>
+  <si>
+    <t>Prix Équator</t>
+  </si>
+  <si>
+    <t>Groupe d'experts intergouvernemental sur l'évolution du climat</t>
+  </si>
+  <si>
+    <t>Plateforme intergouvernementale scientifique et politique sur le changement climatique</t>
+  </si>
+  <si>
+    <t>IPCC</t>
+  </si>
+  <si>
+    <t>GIEC</t>
+  </si>
+  <si>
+    <t>Land Degradation Neutrality</t>
+  </si>
+  <si>
+    <t>LDN</t>
+  </si>
+  <si>
+    <t>NDT</t>
+  </si>
+  <si>
+    <t>Neutralité en Matière de Dégradation des Terres</t>
+  </si>
+  <si>
+    <t>Nature Hub</t>
+  </si>
+  <si>
+    <t>Hub Nature</t>
+  </si>
+  <si>
+    <t>Nature Pledge</t>
+  </si>
+  <si>
+    <t>Engagement pour la nature</t>
+  </si>
+  <si>
+    <t>protected areas</t>
+  </si>
+  <si>
+    <t>aires protegées</t>
+  </si>
+  <si>
+    <t>UNFCCC</t>
+  </si>
+  <si>
+    <t>CCNUCC</t>
+  </si>
+  <si>
+    <t>United Nations Framework Convention on Climate Change</t>
+  </si>
+  <si>
+    <t>Convention-cadre des Nations Unies sur les changements climatiques</t>
   </si>
 </sst>
 </file>
@@ -1038,9 +1119,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA5CBEF-8A44-D347-BE39-3A6D2146B5DD}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1136,10 +1219,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -1150,10 +1233,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -1164,10 +1247,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -1178,10 +1261,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1192,10 +1275,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -1206,10 +1289,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1220,10 +1303,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -1234,10 +1317,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1248,10 +1331,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -1262,10 +1345,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -1276,10 +1359,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -1290,10 +1373,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -1304,10 +1387,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1318,10 +1401,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -1332,10 +1415,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -1346,10 +1429,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -1360,10 +1443,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -1374,10 +1457,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -1388,10 +1471,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -1402,10 +1485,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1416,10 +1499,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1430,10 +1513,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -1444,10 +1527,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1458,10 +1541,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -1472,10 +1555,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -1486,10 +1569,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -1500,10 +1583,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -1514,10 +1597,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -1528,10 +1611,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -1542,10 +1625,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -1556,10 +1639,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -1570,10 +1653,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -1584,10 +1667,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -1598,10 +1681,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -1612,10 +1695,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -1626,10 +1709,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -1640,10 +1723,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -1654,10 +1737,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1668,10 +1751,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -1682,10 +1765,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -1696,10 +1779,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -1710,10 +1793,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -1724,10 +1807,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -1738,10 +1821,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -1752,10 +1835,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -1766,10 +1849,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -1780,10 +1863,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -1794,10 +1877,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -1808,10 +1891,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -1822,10 +1905,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -1836,10 +1919,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -1850,10 +1933,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -1864,10 +1947,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>209</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -1878,10 +1961,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -1892,10 +1975,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="B61" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
@@ -1906,10 +1989,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -1920,10 +2003,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
@@ -1934,10 +2017,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
@@ -1948,10 +2031,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -1962,10 +2045,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -1976,10 +2059,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
@@ -1990,10 +2073,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -2004,10 +2087,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B69" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -2018,10 +2101,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -2032,10 +2115,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -2046,10 +2129,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -2060,10 +2143,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -2074,10 +2157,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B74" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -2088,10 +2171,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -2102,10 +2185,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -2116,10 +2199,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -2130,10 +2213,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -2144,10 +2227,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
@@ -2158,10 +2241,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -2172,10 +2255,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
@@ -2186,10 +2269,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="B82" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
@@ -2200,10 +2283,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
@@ -2214,10 +2297,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -2228,10 +2311,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B85" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
@@ -2242,10 +2325,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -2256,10 +2339,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -2270,10 +2353,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B88" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
@@ -2284,10 +2367,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B89" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
@@ -2298,24 +2381,18 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="B90" t="s">
-        <v>168</v>
-      </c>
-      <c r="C90" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" t="s">
-        <v>3</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="B91" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -2326,10 +2403,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="B92" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -2340,10 +2417,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="B93" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
@@ -2354,10 +2431,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="B94" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -2368,10 +2445,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B95" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -2382,10 +2459,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="B96" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
@@ -2396,10 +2473,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="B97" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -2410,10 +2487,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="B98" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -2424,10 +2501,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B99" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -2438,10 +2515,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="B100" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -2452,10 +2529,212 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" t="s">
+        <v>166</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>167</v>
+      </c>
+      <c r="B102" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>169</v>
+      </c>
+      <c r="B103" t="s">
+        <v>170</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>171</v>
+      </c>
+      <c r="B104" t="s">
+        <v>172</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>173</v>
+      </c>
+      <c r="B105" t="s">
+        <v>174</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>175</v>
+      </c>
+      <c r="B106" t="s">
+        <v>176</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>177</v>
+      </c>
+      <c r="B108" t="s">
+        <v>178</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>179</v>
+      </c>
+      <c r="B109" t="s">
+        <v>180</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>181</v>
+      </c>
+      <c r="B110" t="s">
+        <v>182</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>228</v>
+      </c>
+      <c r="B111" t="s">
+        <v>229</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" t="s">
+        <v>184</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>185</v>
+      </c>
+      <c r="B113" t="s">
+        <v>186</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>187</v>
+      </c>
+      <c r="B114" t="s">
+        <v>188</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>201</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B115" t="s">
         <v>202</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
